--- a/biology/Zoologie/Cochranella_resplendens/Cochranella_resplendens.xlsx
+++ b/biology/Zoologie/Cochranella_resplendens/Cochranella_resplendens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cochranella resplendens est une espèce d'amphibiens de la famille des Centrolenidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cochranella resplendens est une espèce d'amphibiens de la famille des Centrolenidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre en Amazonie jusqu'à 900 m d'altitude[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre en Amazonie jusqu'à 900 m d'altitude :
 en Colombie dans le département de Putumayo ;
 en Équateur dans les provinces de Sucumbíos, de Napo, d'Orellana et de Pastaza ;
 au Pérou dans les régions de Loreto et de San Martín.</t>
@@ -544,9 +558,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 27,3 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 27,3 mm.
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Lynch &amp; Duellman, 1973 : A review of the centrolenid frogs of Ecuador, with descriptions of new species. Occasional Papers of the Museum of Natural History, University of Kansas, vol. 16, p. 1-66 (texte intégral).</t>
         </is>
